--- a/Scripts para la base de datos/Maps/Elementos_puntos.xlsx
+++ b/Scripts para la base de datos/Maps/Elementos_puntos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
@@ -14,6 +14,8 @@
   <definedNames>
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$F$44</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2'!$A$2:$F$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$F$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2'!$A$2:$F$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -54,25 +56,25 @@
     <t xml:space="preserve">image</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel1.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel1.png</t>
   </si>
   <si>
     <t xml:space="preserve">None</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel2.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel3.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel4.jpg</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel3.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel4.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">text</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_1.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_1.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Lorem ipsum dolor sit amet, consectetur adipiscing elit. Phasellus quis condimentum quam. Donec sodales rutrum lorem, quis viverra odio pharetra condimentum. Pellentesque sit amet lectus odio.</t>
@@ -81,13 +83,13 @@
     <t xml:space="preserve">pto2</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel5.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel6.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_3.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel6.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_3.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Pellentesque sit amet lectus odio. Duis mattis lectus eget scelerisque feugiat. Aliquam erat volutpat. Vestibulum blandit, est eget cursus mattis, ex augue dapibus tortor, vitae porta tortor ex eu eros.</t>
@@ -96,16 +98,16 @@
     <t xml:space="preserve">pto4</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel7.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel8.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel9.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_5.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel8.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_5.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Aenean mollis orci enim, vitae tempus massa luctus molestie. In mattis efficitur massa non auctor. Integer placerat non mi ac rhoncus. </t>
@@ -114,16 +116,16 @@
     <t xml:space="preserve">pto6</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel10.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel11.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel12.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_7.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel10.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel11.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel12.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_7.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Integer placerat non mi ac rhoncus. Fusce condimentum, sem quis ultricies malesuada, leo tellus tincidunt ex, sed ullamcorper turpis mauris vitae magna.</t>
@@ -132,13 +134,13 @@
     <t xml:space="preserve">pto8</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel13.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel14.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_9.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel13.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel14.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_9.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Phasellus semper lorem vitae nisi ultrices, non interdum ligula vehicula. Curabitur justo lorem, consequat at ornare vitae, dignissim in augue. </t>
@@ -156,19 +158,19 @@
     <t xml:space="preserve">pto10</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel15.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel16.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel17.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel18.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_11.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel15.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel16.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel17.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel18.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_11.txt</t>
   </si>
   <si>
     <t xml:space="preserve">In felis elit, finibus id pharetra id, elementum at sapien. Mauris non risus tincidunt, interdum eros a, semper felis. Pellentesque eu enim viverra, cursus ex non, venenatis nulla.</t>
@@ -177,10 +179,10 @@
     <t xml:space="preserve">pto13</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel19.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_14.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel19.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_14.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Duis arcu eros, imperdiet a nisl at, elementum imperdiet ipsum. Curabitur tincidunt malesuada urna sit amet vestibulum. Morbi sollicitudin pulvinar urna, viverra cursus nunc dignissim quis.</t>
@@ -189,16 +191,16 @@
     <t xml:space="preserve">pto15</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel20.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel21.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel22.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_16.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel20.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel21.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel22.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_16.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Etiam a rhoncus velit. Pellentesque pharetra pharetra arcu, a interdum ex varius non. Duis pulvinar non ante id tincidunt.</t>
@@ -207,19 +209,19 @@
     <t xml:space="preserve">pto19</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel23.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel24.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel25.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel26.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_20.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel23.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel24.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel25.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel26.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_20.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Proin feugiat blandit eros, eu venenatis ligula euismod et. Phasellus gravida auctor dui et gravida. Duis facilisis justo eu erat tempus pretium</t>
@@ -231,16 +233,16 @@
     <t xml:space="preserve">pto21</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel27.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel28.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/Travel29.jpg</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/1/description_point_22.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel27.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel28.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/Travel29.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/1/description_point_22.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Ut ut bibendum nisi. Suspendisse a convallis lorem, et scelerisque risus. Ut hendrerit dolor quis libero auctor dignissim.</t>
@@ -258,13 +260,13 @@
     <t xml:space="preserve">../resources/travel/maps/2/Travel1.png</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel3.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_1.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel2.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel3.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_1.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Vestibulum sed ex at sem posuere bibendum. Vivamus cursus convallis nunc ut porttitor. In placerat lorem ut nibh iaculis luctus. Proin lacinia justo sed nisi sollicitudin, at rutrum libero porttitor.</t>
@@ -273,16 +275,16 @@
     <t xml:space="preserve">pto1b</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel6.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_3.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel4.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel5.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel6.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_3.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Duis id gravida neque. Sed tristique sollicitudin vulputate. Nulla tempus tellus nisi, eu vestibulum turpis gravida a. Maecenas sodales condimentum lorem, tincidunt commodo ante vulputate ut.</t>
@@ -294,13 +296,13 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=JMguEHXP0sc</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel8.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_4.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel7.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel8.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_4.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Duis sed semper massa. Nunc ex nibh, aliquam nec tortor eget, consequat consequat urna. Vestibulum eget elit facilisis, venenatis sem vitae, laoreet ipsum.</t>
@@ -309,28 +311,28 @@
     <t xml:space="preserve">pto3</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel11.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_5.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel9.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel10.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel11.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_5.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Morbi sodales risus vitae tortor pretium pulvinar. Morbi volutpat dapibus dignissim. Nulla consequat varius ante, quis mattis massa facilisis non. Nunc in consequat ligula. Morbi tempus varius tempor.</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel13.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_8.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel12.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel13.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_8.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Morbi lobortis aliquam ipsum in rhoncus. Interdum et malesuada fames ac ante ipsum primis in faucibus. Aliquam ligula leo, tristique quis justo vel, pellentesque finibus justo.</t>
@@ -339,16 +341,16 @@
     <t xml:space="preserve">pto9</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel16.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_11.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel14.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel15.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel16.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_11.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Ut dapibus nibh in hendrerit lacinia. Mauris lacinia faucibus libero. Quisque ullamcorper commodo neque, eu placerat metus. Vestibulum dignissim hendrerit arcu vel tincidunt.</t>
@@ -360,22 +362,22 @@
     <t xml:space="preserve">pto12</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel21.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_14.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel17.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel18.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel19.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel20.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel21.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_14.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Donec posuere finibus massa. Aliquam consequat massa non massa mattis, eget iaculis ante ultrices. Praesent ultrices mi felis. </t>
@@ -384,46 +386,46 @@
     <t xml:space="preserve">13b</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel24.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_16.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel22.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel23.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel24.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_16.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Class aptent taciti sociosqu ad litora torquent per conubia nostra, per inceptos himenaeos. Morbi sit amet interdum ex.</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel25.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_20.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel25.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_20.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Ut ipsum diam, eleifend ac nulla vel, varius porttitor neque. Donec nunc turpis, posuere viverra tempor ut, euismod eget eros. Morbi porttitor velit quis placerat lacinia.</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel30.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../resources/travel/maps/2/description_point_21.txt</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel26.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel27.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel28.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel29.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel30.png</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/description_point_21.txt</t>
   </si>
   <si>
     <t xml:space="preserve">Nam eleifend et felis sit amet facilisis. Class aptent taciti sociosqu ad litora torquent per conubia nostra, per inceptos himenaeos. Quisque nec urna et eros scelerisque consectetur non nec neque.</t>
@@ -437,7 +439,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.000000"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -574,12 +576,6 @@
       <name val="Cambria"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
     </font>
   </fonts>
   <fills count="14">
@@ -773,7 +769,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -815,10 +811,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -828,18 +820,6 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="20" fillId="11" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -946,8 +926,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="3" sqref="D3:D21 D24:D39 D41:D44 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -955,7 +935,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="18.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.33"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="49.34"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="34.18"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="17.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="14.43"/>
@@ -2833,13 +2813,13 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A40" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D14" activeCellId="0" sqref="D14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D21 D24:D39 D41:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="14.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="46.4"/>
@@ -2894,7 +2874,7 @@
       <c r="E3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="10" t="n">
+      <c r="F3" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2914,7 +2894,7 @@
       <c r="E4" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="10" t="n">
+      <c r="F4" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2934,27 +2914,27 @@
       <c r="E5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="10" t="n">
+      <c r="F5" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="11" t="n">
+      <c r="B6" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="F6" s="14" t="n">
+      <c r="F6" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2974,67 +2954,67 @@
       <c r="E7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="10" t="n">
+      <c r="F7" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B8" s="11" t="n">
+      <c r="B8" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14" t="n">
+      <c r="E8" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="11" t="n">
+      <c r="B9" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="12" t="s">
+      <c r="C9" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F9" s="14" t="n">
+      <c r="E9" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="10" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="69.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="s">
+      <c r="A10" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="B10" s="11" t="n">
+      <c r="B10" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="F10" s="14" t="n">
+      <c r="F10" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3054,7 +3034,7 @@
       <c r="E11" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="10" t="n">
+      <c r="F11" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3074,7 +3054,7 @@
       <c r="E12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="10" t="n">
+      <c r="F12" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3094,7 +3074,7 @@
       <c r="E13" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="10" t="n">
+      <c r="F13" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3114,27 +3094,27 @@
       <c r="E14" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F14" s="10" t="n">
+      <c r="F14" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="s">
+      <c r="A15" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="11" t="n">
+      <c r="B15" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="F15" s="14" t="n">
+      <c r="F15" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3154,7 +3134,7 @@
       <c r="E16" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="10" t="n">
+      <c r="F16" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3174,7 +3154,7 @@
       <c r="E17" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F17" s="10" t="n">
+      <c r="F17" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3194,27 +3174,27 @@
       <c r="E18" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="10" t="n">
+      <c r="F18" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="79.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="s">
+      <c r="A19" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="11" t="n">
+      <c r="B19" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="15" t="s">
+      <c r="D19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="E19" s="13" t="s">
+      <c r="E19" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="F19" s="14" t="n">
+      <c r="F19" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3234,7 +3214,7 @@
       <c r="E20" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="10" t="n">
+      <c r="F20" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3254,27 +3234,27 @@
       <c r="E21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="10" t="n">
+      <c r="F21" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="s">
+      <c r="A22" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="11" t="n">
-        <v>8</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="B22" s="10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D22" s="12" t="s">
+      <c r="D22" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="E22" s="13" t="s">
+      <c r="E22" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="F22" s="14" t="n">
+      <c r="F22" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3294,7 +3274,7 @@
       <c r="E23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F23" s="10" t="n">
+      <c r="F23" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3314,7 +3294,7 @@
       <c r="E24" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="10" t="n">
+      <c r="F24" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3334,27 +3314,27 @@
       <c r="E25" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="10" t="n">
+      <c r="F25" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="11" t="s">
+      <c r="A26" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="B26" s="11" t="n">
+      <c r="B26" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="15" t="s">
+      <c r="D26" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="E26" s="13" t="s">
+      <c r="E26" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="F26" s="14" t="n">
+      <c r="F26" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3368,13 +3348,13 @@
       <c r="C27" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="16" t="s">
+      <c r="D27" s="9" t="s">
         <v>109</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="10" t="n">
+      <c r="F27" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3394,7 +3374,7 @@
       <c r="E28" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="10" t="n">
+      <c r="F28" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3414,7 +3394,7 @@
       <c r="E29" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F29" s="10" t="n">
+      <c r="F29" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3434,7 +3414,7 @@
       <c r="E30" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="10" t="n">
+      <c r="F30" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3454,7 +3434,7 @@
       <c r="E31" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="10" t="n">
+      <c r="F31" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3474,27 +3454,27 @@
       <c r="E32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="10" t="n">
+      <c r="F32" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="11" t="s">
+      <c r="A33" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="B33" s="11" t="n">
+      <c r="B33" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="12" t="s">
+      <c r="D33" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E33" s="13" t="s">
+      <c r="E33" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="F33" s="14" t="n">
+      <c r="F33" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3514,7 +3494,7 @@
       <c r="E34" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="10" t="n">
+      <c r="F34" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3534,7 +3514,7 @@
       <c r="E35" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F35" s="10" t="n">
+      <c r="F35" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3554,27 +3534,27 @@
       <c r="E36" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="10" t="n">
+      <c r="F36" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="40.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="11" t="s">
+      <c r="A37" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="B37" s="11" t="n">
+      <c r="B37" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D37" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="E37" s="13" t="s">
+      <c r="E37" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="F37" s="14" t="n">
+      <c r="F37" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3594,27 +3574,27 @@
       <c r="E38" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F38" s="10" t="n">
+      <c r="F38" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="50.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="11" t="n">
+      <c r="A39" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B39" s="11" t="n">
+      <c r="B39" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="13" t="s">
+      <c r="E39" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="F39" s="14" t="n">
+      <c r="F39" s="10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3634,7 +3614,7 @@
       <c r="E40" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="10" t="n">
+      <c r="F40" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3654,7 +3634,7 @@
       <c r="E41" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F41" s="10" t="n">
+      <c r="F41" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3674,7 +3654,7 @@
       <c r="E42" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F42" s="10" t="n">
+      <c r="F42" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3694,7 +3674,7 @@
       <c r="E43" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="10" t="n">
+      <c r="F43" s="8" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3714,27 +3694,27 @@
       <c r="E44" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="F44" s="10" t="n">
+      <c r="F44" s="8" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="59.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="11" t="n">
+      <c r="A45" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B45" s="11" t="n">
+      <c r="B45" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="12" t="s">
+      <c r="D45" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="E45" s="13" t="s">
+      <c r="E45" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="F45" s="14" t="n">
+      <c r="F45" s="10" t="n">
         <v>0</v>
       </c>
     </row>

--- a/Scripts para la base de datos/Maps/Elementos_puntos.xlsx
+++ b/Scripts para la base de datos/Maps/Elementos_puntos.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,7 +15,11 @@
     <definedName function="false" hidden="true" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$F$44</definedName>
     <definedName function="false" hidden="true" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2'!$A$2:$F$45</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'1'!$A$2:$F$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0" vbProcedure="false">'1'!$A$2:$F$44</definedName>
+    <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'1'!$A$2:$F$44</definedName>
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase" vbProcedure="false">'2'!$A$2:$F$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0" vbProcedure="false">'2'!$A$2:$F$45</definedName>
+    <definedName function="false" hidden="false" localSheetId="1" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">'2'!$A$2:$F$45</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -257,13 +261,13 @@
     <t xml:space="preserve">salida</t>
   </si>
   <si>
-    <t xml:space="preserve">../resources/travel/maps/2/Travel1.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel2.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel3.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel1.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel2.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel3.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_1.txt</t>
@@ -275,13 +279,13 @@
     <t xml:space="preserve">pto1b</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel4.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel5.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel6.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel4.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel5.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel6.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_3.txt</t>
@@ -296,10 +300,10 @@
     <t xml:space="preserve">https://www.youtube.com/watch?v=JMguEHXP0sc</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel7.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel8.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel7.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel8.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_4.txt</t>
@@ -311,13 +315,13 @@
     <t xml:space="preserve">pto3</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel9.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel10.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel11.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel9.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel10.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel11.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_5.txt</t>
@@ -326,10 +330,10 @@
     <t xml:space="preserve">Morbi sodales risus vitae tortor pretium pulvinar. Morbi volutpat dapibus dignissim. Nulla consequat varius ante, quis mattis massa facilisis non. Nunc in consequat ligula. Morbi tempus varius tempor.</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel12.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel13.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel12.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel13.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_8.txt</t>
@@ -341,13 +345,13 @@
     <t xml:space="preserve">pto9</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel14.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel15.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel16.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel14.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel15.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel16.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_11.txt</t>
@@ -362,19 +366,19 @@
     <t xml:space="preserve">pto12</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel17.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel18.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel19.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel20.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel21.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel17.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel18.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel19.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel20.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel21.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_14.txt</t>
@@ -386,13 +390,13 @@
     <t xml:space="preserve">13b</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel22.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel23.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel24.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel22.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel23.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel24.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_16.txt</t>
@@ -401,7 +405,7 @@
     <t xml:space="preserve">Class aptent taciti sociosqu ad litora torquent per conubia nostra, per inceptos himenaeos. Morbi sit amet interdum ex.</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel25.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel25.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_20.txt</t>
@@ -410,19 +414,19 @@
     <t xml:space="preserve">Ut ipsum diam, eleifend ac nulla vel, varius porttitor neque. Donec nunc turpis, posuere viverra tempor ut, euismod eget eros. Morbi porttitor velit quis placerat lacinia.</t>
   </si>
   <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel26.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel27.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel28.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel29.png</t>
-  </si>
-  <si>
-    <t xml:space="preserve">../../resources/travel/maps/2/Travel30.png</t>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel26.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel27.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel28.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel29.jpg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../../resources/travel/maps/2/Travel30.jpg</t>
   </si>
   <si>
     <t xml:space="preserve">../../resources/travel/maps/2/description_point_21.txt</t>
@@ -926,8 +930,8 @@
   </sheetPr>
   <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A8" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="3" sqref="D3:D21 D24:D39 D41:D44 E10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E10" activeCellId="10" sqref="D3:D5 D7:D9 D13:D14 D16:D18 D20:D21 D23:D25 D28:D32 D34:D36 D38 D40:D44 E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2813,8 +2817,8 @@
   </sheetPr>
   <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D21 D24:D39 D41:D44"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D3" activeCellId="0" sqref="D3:D5 D7:D9 D13:D14 D16:D18 D20:D21 D23:D25 D28:D32 D34:D36 D38 D40:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
